--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskf_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskf_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2A466-CCCF-4C6A-8F72-7CAB4538AEDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E908182-D805-4375-8D06-32D580BF686F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,6 +1043,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1074,21 +1089,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,38 +1621,38 @@
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="50" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="47" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54"/>
       <c r="X2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1662,10 +1662,10 @@
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
@@ -1675,31 +1675,31 @@
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="61"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="59"/>
+      <c r="T3" s="48"/>
       <c r="U3" s="13" t="s">
         <v>56</v>
       </c>
@@ -1857,28 +1857,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1924,16 +1920,11 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2125,7 +2116,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0AEC1C-1F93-49E9-BD12-AFB3BBBC95C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9ACB35-6734-42F1-8D93-4F7A5AC19E1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -2133,23 +2141,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0AEC1C-1F93-49E9-BD12-AFB3BBBC95C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD735F4-1A32-4666-9B4A-9311BFA88F0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1B2A595-1C92-424D-86B1-9B335DC208CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2166,4 +2158,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD735F4-1A32-4666-9B4A-9311BFA88F0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskf_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskf_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E908182-D805-4375-8D06-32D580BF686F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074632AF-5E14-474F-9F33-9BF9E55B4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sskf_Beispielbefüllung" sheetId="2" r:id="rId1"/>
@@ -478,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -549,14 +549,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -572,7 +583,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -586,232 +610,20 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -875,6 +687,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -884,14 +763,14 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -901,19 +780,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -926,57 +802,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -986,95 +829,47 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1082,13 +877,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,9 +1005,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1241,9 +1045,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1276,26 +1080,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1328,26 +1115,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1524,349 +1294,348 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13" style="22" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="25" customWidth="1"/>
-    <col min="11" max="16" width="5.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="22" customWidth="1"/>
-    <col min="18" max="20" width="8.5703125" style="22" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="27" customWidth="1"/>
-    <col min="22" max="23" width="7.140625" style="22" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="26" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="13" customWidth="1"/>
+    <col min="11" max="16" width="5.7109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="12" customWidth="1"/>
+    <col min="18" max="20" width="8.5703125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="15" customWidth="1"/>
+    <col min="22" max="23" width="7.140625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="14" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="55" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="52" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="19" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="13" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="17"/>
+      <c r="X3" s="27"/>
     </row>
-    <row r="4" spans="1:24" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="9" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="27"/>
     </row>
-    <row r="5" spans="1:24" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="4" t="s">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="6" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="18"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="28"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="34"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="41"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -1875,56 +1644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2116,6 +1835,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2126,22 +1895,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0AEC1C-1F93-49E9-BD12-AFB3BBBC95C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9ACB35-6734-42F1-8D93-4F7A5AC19E1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1B2A595-1C92-424D-86B1-9B335DC208CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2160,6 +1913,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9ACB35-6734-42F1-8D93-4F7A5AC19E1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF0AEC1C-1F93-49E9-BD12-AFB3BBBC95C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD735F4-1A32-4666-9B4A-9311BFA88F0D}">
   <ds:schemaRefs>
